--- a/data/Pinus_koraiensis.xlsx
+++ b/data/Pinus_koraiensis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="15">
   <si>
     <t>VLA</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Expert</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>KR</t>
   </si>
 </sst>
 </file>
@@ -411,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="E386" sqref="E386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +432,7 @@
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -440,7 +449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -456,12 +465,8 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
-        <f>IF(C2&lt;40,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -477,12 +482,8 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F65" si="0">IF(C3&lt;40,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -498,12 +499,8 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -519,12 +516,8 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -540,12 +533,8 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -561,12 +550,8 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -582,12 +567,8 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -603,12 +584,8 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -624,12 +601,8 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -645,12 +618,8 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -666,12 +635,8 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -687,12 +652,8 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -708,12 +669,8 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -729,12 +686,8 @@
       <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -750,12 +703,8 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -771,12 +720,8 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -792,12 +737,8 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -813,12 +754,8 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -834,12 +771,8 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -855,12 +788,8 @@
       <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -876,12 +805,8 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -897,12 +822,8 @@
       <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -918,12 +839,8 @@
       <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -939,12 +856,8 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -960,12 +873,8 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -981,12 +890,8 @@
       <c r="E27" t="s">
         <v>8</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1002,12 +907,8 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1023,12 +924,8 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1044,12 +941,8 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1065,12 +958,8 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1086,12 +975,8 @@
       <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1107,12 +992,8 @@
       <c r="E33" t="s">
         <v>8</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1128,12 +1009,8 @@
       <c r="E34" t="s">
         <v>8</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1149,12 +1026,8 @@
       <c r="E35" t="s">
         <v>8</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1170,12 +1043,8 @@
       <c r="E36" t="s">
         <v>8</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1191,12 +1060,8 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1212,12 +1077,8 @@
       <c r="E38" t="s">
         <v>8</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1233,12 +1094,8 @@
       <c r="E39" t="s">
         <v>8</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1254,12 +1111,8 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1275,12 +1128,8 @@
       <c r="E41" t="s">
         <v>8</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1296,12 +1145,8 @@
       <c r="E42" t="s">
         <v>8</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1317,12 +1162,8 @@
       <c r="E43" t="s">
         <v>8</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1338,12 +1179,8 @@
       <c r="E44" t="s">
         <v>8</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1359,12 +1196,8 @@
       <c r="E45" t="s">
         <v>8</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1380,12 +1213,8 @@
       <c r="E46" t="s">
         <v>8</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1401,12 +1230,8 @@
       <c r="E47" t="s">
         <v>8</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1422,12 +1247,8 @@
       <c r="E48" t="s">
         <v>8</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1443,12 +1264,8 @@
       <c r="E49" t="s">
         <v>8</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1464,12 +1281,8 @@
       <c r="E50" t="s">
         <v>8</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1485,12 +1298,8 @@
       <c r="E51" t="s">
         <v>8</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1503,12 +1312,8 @@
       <c r="E52" t="s">
         <v>8</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1521,12 +1326,8 @@
       <c r="E53" t="s">
         <v>8</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1539,12 +1340,8 @@
       <c r="E54" t="s">
         <v>8</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1557,12 +1354,8 @@
       <c r="E55" t="s">
         <v>8</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1575,12 +1368,8 @@
       <c r="E56" t="s">
         <v>8</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1593,12 +1382,8 @@
       <c r="E57" t="s">
         <v>8</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1611,12 +1396,8 @@
       <c r="E58" t="s">
         <v>8</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1629,12 +1410,8 @@
       <c r="E59" t="s">
         <v>8</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1647,12 +1424,8 @@
       <c r="E60" t="s">
         <v>8</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1665,12 +1438,8 @@
       <c r="E61" t="s">
         <v>8</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1683,12 +1452,8 @@
       <c r="E62" t="s">
         <v>8</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1701,12 +1466,8 @@
       <c r="E63" t="s">
         <v>8</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1719,12 +1480,8 @@
       <c r="E64" t="s">
         <v>8</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1737,12 +1494,8 @@
       <c r="E65" t="s">
         <v>8</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1755,12 +1508,8 @@
       <c r="E66" t="s">
         <v>8</v>
       </c>
-      <c r="F66">
-        <f t="shared" ref="F66:F129" si="1">IF(C66&lt;40,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1773,12 +1522,8 @@
       <c r="E67" t="s">
         <v>8</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1791,12 +1536,8 @@
       <c r="E68" t="s">
         <v>8</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1809,12 +1550,8 @@
       <c r="E69" t="s">
         <v>8</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1827,12 +1564,8 @@
       <c r="E70" t="s">
         <v>8</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1845,12 +1578,8 @@
       <c r="E71" t="s">
         <v>8</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1863,12 +1592,8 @@
       <c r="E72" t="s">
         <v>8</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1881,12 +1606,8 @@
       <c r="E73" t="s">
         <v>8</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -1899,12 +1620,8 @@
       <c r="E74" t="s">
         <v>8</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -1917,12 +1634,8 @@
       <c r="E75" t="s">
         <v>8</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -1935,12 +1648,8 @@
       <c r="E76" t="s">
         <v>8</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1953,12 +1662,8 @@
       <c r="E77" t="s">
         <v>8</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -1971,12 +1676,8 @@
       <c r="E78" t="s">
         <v>8</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -1989,12 +1690,8 @@
       <c r="E79" t="s">
         <v>8</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2007,12 +1704,8 @@
       <c r="E80" t="s">
         <v>8</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2025,12 +1718,8 @@
       <c r="E81" t="s">
         <v>8</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2043,12 +1732,8 @@
       <c r="E82" t="s">
         <v>8</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2061,12 +1746,8 @@
       <c r="E83" t="s">
         <v>8</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2079,12 +1760,8 @@
       <c r="E84" t="s">
         <v>8</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2097,12 +1774,8 @@
       <c r="E85" t="s">
         <v>8</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2115,12 +1788,8 @@
       <c r="E86" t="s">
         <v>8</v>
       </c>
-      <c r="F86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2133,12 +1802,8 @@
       <c r="E87" t="s">
         <v>8</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2151,12 +1816,8 @@
       <c r="E88" t="s">
         <v>8</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2169,12 +1830,8 @@
       <c r="E89" t="s">
         <v>8</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2187,12 +1844,8 @@
       <c r="E90" t="s">
         <v>8</v>
       </c>
-      <c r="F90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2205,12 +1858,8 @@
       <c r="E91" t="s">
         <v>8</v>
       </c>
-      <c r="F91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2223,12 +1872,8 @@
       <c r="E92" t="s">
         <v>8</v>
       </c>
-      <c r="F92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2241,12 +1886,8 @@
       <c r="E93" t="s">
         <v>8</v>
       </c>
-      <c r="F93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -2259,12 +1900,8 @@
       <c r="E94" t="s">
         <v>8</v>
       </c>
-      <c r="F94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -2277,12 +1914,8 @@
       <c r="E95" t="s">
         <v>8</v>
       </c>
-      <c r="F95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -2295,12 +1928,8 @@
       <c r="E96" t="s">
         <v>8</v>
       </c>
-      <c r="F96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2313,12 +1942,8 @@
       <c r="E97" t="s">
         <v>8</v>
       </c>
-      <c r="F97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2331,12 +1956,8 @@
       <c r="E98" t="s">
         <v>8</v>
       </c>
-      <c r="F98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -2349,12 +1970,8 @@
       <c r="E99" t="s">
         <v>8</v>
       </c>
-      <c r="F99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -2367,12 +1984,8 @@
       <c r="E100" t="s">
         <v>8</v>
       </c>
-      <c r="F100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -2385,12 +1998,8 @@
       <c r="E101" t="s">
         <v>8</v>
       </c>
-      <c r="F101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -2403,12 +2012,8 @@
       <c r="E102" t="s">
         <v>8</v>
       </c>
-      <c r="F102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -2421,12 +2026,8 @@
       <c r="E103" t="s">
         <v>8</v>
       </c>
-      <c r="F103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -2439,12 +2040,8 @@
       <c r="E104" t="s">
         <v>8</v>
       </c>
-      <c r="F104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -2457,12 +2054,8 @@
       <c r="E105" t="s">
         <v>8</v>
       </c>
-      <c r="F105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -2475,12 +2068,8 @@
       <c r="E106" t="s">
         <v>8</v>
       </c>
-      <c r="F106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2493,12 +2082,8 @@
       <c r="E107" t="s">
         <v>8</v>
       </c>
-      <c r="F107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -2511,12 +2096,8 @@
       <c r="E108" t="s">
         <v>8</v>
       </c>
-      <c r="F108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -2529,12 +2110,8 @@
       <c r="E109" t="s">
         <v>8</v>
       </c>
-      <c r="F109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -2547,12 +2124,8 @@
       <c r="E110" t="s">
         <v>8</v>
       </c>
-      <c r="F110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -2565,12 +2138,8 @@
       <c r="E111" t="s">
         <v>8</v>
       </c>
-      <c r="F111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -2583,12 +2152,8 @@
       <c r="E112" t="s">
         <v>8</v>
       </c>
-      <c r="F112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2601,12 +2166,8 @@
       <c r="E113" t="s">
         <v>8</v>
       </c>
-      <c r="F113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -2619,12 +2180,8 @@
       <c r="E114" t="s">
         <v>8</v>
       </c>
-      <c r="F114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -2637,12 +2194,8 @@
       <c r="E115" t="s">
         <v>8</v>
       </c>
-      <c r="F115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -2655,12 +2208,8 @@
       <c r="E116" t="s">
         <v>8</v>
       </c>
-      <c r="F116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -2673,12 +2222,8 @@
       <c r="E117" t="s">
         <v>8</v>
       </c>
-      <c r="F117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -2691,12 +2236,8 @@
       <c r="E118" t="s">
         <v>8</v>
       </c>
-      <c r="F118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -2709,12 +2250,8 @@
       <c r="E119" t="s">
         <v>8</v>
       </c>
-      <c r="F119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -2727,12 +2264,8 @@
       <c r="E120" t="s">
         <v>8</v>
       </c>
-      <c r="F120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -2745,12 +2278,8 @@
       <c r="E121" t="s">
         <v>8</v>
       </c>
-      <c r="F121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -2763,12 +2292,8 @@
       <c r="E122" t="s">
         <v>8</v>
       </c>
-      <c r="F122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -2781,12 +2306,8 @@
       <c r="E123" t="s">
         <v>8</v>
       </c>
-      <c r="F123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -2799,12 +2320,8 @@
       <c r="E124" t="s">
         <v>8</v>
       </c>
-      <c r="F124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -2817,12 +2334,8 @@
       <c r="E125" t="s">
         <v>8</v>
       </c>
-      <c r="F125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -2835,12 +2348,8 @@
       <c r="E126" t="s">
         <v>8</v>
       </c>
-      <c r="F126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -2853,12 +2362,8 @@
       <c r="E127" t="s">
         <v>8</v>
       </c>
-      <c r="F127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -2871,12 +2376,8 @@
       <c r="E128" t="s">
         <v>8</v>
       </c>
-      <c r="F128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2889,12 +2390,8 @@
       <c r="E129" t="s">
         <v>8</v>
       </c>
-      <c r="F129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -2907,12 +2404,8 @@
       <c r="E130" t="s">
         <v>8</v>
       </c>
-      <c r="F130">
-        <f t="shared" ref="F130:F193" si="2">IF(C130&lt;40,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -2925,12 +2418,8 @@
       <c r="E131" t="s">
         <v>8</v>
       </c>
-      <c r="F131">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -2943,12 +2432,8 @@
       <c r="E132" t="s">
         <v>8</v>
       </c>
-      <c r="F132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -2961,12 +2446,8 @@
       <c r="E133" t="s">
         <v>8</v>
       </c>
-      <c r="F133">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -2979,12 +2460,8 @@
       <c r="E134" t="s">
         <v>8</v>
       </c>
-      <c r="F134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -2997,12 +2474,8 @@
       <c r="E135" t="s">
         <v>8</v>
       </c>
-      <c r="F135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -3015,12 +2488,8 @@
       <c r="E136" t="s">
         <v>8</v>
       </c>
-      <c r="F136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -3033,12 +2502,8 @@
       <c r="E137" t="s">
         <v>8</v>
       </c>
-      <c r="F137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -3051,12 +2516,8 @@
       <c r="E138" t="s">
         <v>8</v>
       </c>
-      <c r="F138">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -3069,12 +2530,8 @@
       <c r="E139" t="s">
         <v>8</v>
       </c>
-      <c r="F139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -3087,12 +2544,8 @@
       <c r="E140" t="s">
         <v>8</v>
       </c>
-      <c r="F140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -3105,12 +2558,8 @@
       <c r="E141" t="s">
         <v>8</v>
       </c>
-      <c r="F141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3123,12 +2572,8 @@
       <c r="E142" t="s">
         <v>8</v>
       </c>
-      <c r="F142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3141,12 +2586,8 @@
       <c r="E143" t="s">
         <v>8</v>
       </c>
-      <c r="F143">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3159,12 +2600,8 @@
       <c r="E144" t="s">
         <v>8</v>
       </c>
-      <c r="F144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -3177,12 +2614,8 @@
       <c r="E145" t="s">
         <v>8</v>
       </c>
-      <c r="F145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3195,12 +2628,8 @@
       <c r="E146" t="s">
         <v>8</v>
       </c>
-      <c r="F146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3213,12 +2642,8 @@
       <c r="E147" t="s">
         <v>8</v>
       </c>
-      <c r="F147">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -3231,12 +2656,8 @@
       <c r="E148" t="s">
         <v>8</v>
       </c>
-      <c r="F148">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3249,12 +2670,8 @@
       <c r="E149" t="s">
         <v>8</v>
       </c>
-      <c r="F149">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -3267,12 +2684,8 @@
       <c r="E150" t="s">
         <v>8</v>
       </c>
-      <c r="F150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -3285,12 +2698,8 @@
       <c r="E151" t="s">
         <v>8</v>
       </c>
-      <c r="F151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -3303,12 +2712,8 @@
       <c r="E152" t="s">
         <v>8</v>
       </c>
-      <c r="F152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -3321,12 +2726,8 @@
       <c r="E153" t="s">
         <v>8</v>
       </c>
-      <c r="F153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -3339,12 +2740,8 @@
       <c r="E154" t="s">
         <v>8</v>
       </c>
-      <c r="F154">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3357,12 +2754,8 @@
       <c r="E155" t="s">
         <v>8</v>
       </c>
-      <c r="F155">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -3375,12 +2768,8 @@
       <c r="E156" t="s">
         <v>8</v>
       </c>
-      <c r="F156">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -3393,12 +2782,8 @@
       <c r="E157" t="s">
         <v>8</v>
       </c>
-      <c r="F157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -3411,12 +2796,8 @@
       <c r="E158" t="s">
         <v>8</v>
       </c>
-      <c r="F158">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -3429,12 +2810,8 @@
       <c r="E159" t="s">
         <v>8</v>
       </c>
-      <c r="F159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -3447,12 +2824,8 @@
       <c r="E160" t="s">
         <v>8</v>
       </c>
-      <c r="F160">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -3465,12 +2838,8 @@
       <c r="E161" t="s">
         <v>8</v>
       </c>
-      <c r="F161">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -3483,12 +2852,8 @@
       <c r="E162" t="s">
         <v>8</v>
       </c>
-      <c r="F162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -3501,12 +2866,8 @@
       <c r="E163" t="s">
         <v>8</v>
       </c>
-      <c r="F163">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -3519,12 +2880,8 @@
       <c r="E164" t="s">
         <v>8</v>
       </c>
-      <c r="F164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -3537,12 +2894,8 @@
       <c r="E165" t="s">
         <v>8</v>
       </c>
-      <c r="F165">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3555,12 +2908,8 @@
       <c r="E166" t="s">
         <v>8</v>
       </c>
-      <c r="F166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -3573,12 +2922,8 @@
       <c r="E167" t="s">
         <v>8</v>
       </c>
-      <c r="F167">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -3591,12 +2936,8 @@
       <c r="E168" t="s">
         <v>8</v>
       </c>
-      <c r="F168">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -3609,12 +2950,8 @@
       <c r="E169" t="s">
         <v>8</v>
       </c>
-      <c r="F169">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -3627,12 +2964,8 @@
       <c r="E170" t="s">
         <v>8</v>
       </c>
-      <c r="F170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -3645,12 +2978,8 @@
       <c r="E171" t="s">
         <v>8</v>
       </c>
-      <c r="F171">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -3663,12 +2992,8 @@
       <c r="E172" t="s">
         <v>8</v>
       </c>
-      <c r="F172">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -3681,12 +3006,8 @@
       <c r="E173" t="s">
         <v>8</v>
       </c>
-      <c r="F173">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -3699,12 +3020,8 @@
       <c r="E174" t="s">
         <v>8</v>
       </c>
-      <c r="F174">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -3717,12 +3034,8 @@
       <c r="E175" t="s">
         <v>8</v>
       </c>
-      <c r="F175">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -3735,12 +3048,8 @@
       <c r="E176" t="s">
         <v>8</v>
       </c>
-      <c r="F176">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -3753,12 +3062,8 @@
       <c r="E177" t="s">
         <v>8</v>
       </c>
-      <c r="F177">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -3771,12 +3076,8 @@
       <c r="E178" t="s">
         <v>8</v>
       </c>
-      <c r="F178">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -3789,12 +3090,8 @@
       <c r="E179" t="s">
         <v>8</v>
       </c>
-      <c r="F179">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -3807,12 +3104,8 @@
       <c r="E180" t="s">
         <v>8</v>
       </c>
-      <c r="F180">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -3825,12 +3118,8 @@
       <c r="E181" t="s">
         <v>8</v>
       </c>
-      <c r="F181">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -3843,12 +3132,8 @@
       <c r="E182" t="s">
         <v>8</v>
       </c>
-      <c r="F182">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -3861,12 +3146,8 @@
       <c r="E183" t="s">
         <v>8</v>
       </c>
-      <c r="F183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -3879,12 +3160,8 @@
       <c r="E184" t="s">
         <v>8</v>
       </c>
-      <c r="F184">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -3897,12 +3174,8 @@
       <c r="E185" t="s">
         <v>8</v>
       </c>
-      <c r="F185">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -3915,12 +3188,8 @@
       <c r="E186" t="s">
         <v>8</v>
       </c>
-      <c r="F186">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -3933,12 +3202,8 @@
       <c r="E187" t="s">
         <v>8</v>
       </c>
-      <c r="F187">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -3951,12 +3216,8 @@
       <c r="E188" t="s">
         <v>8</v>
       </c>
-      <c r="F188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -3969,12 +3230,8 @@
       <c r="E189" t="s">
         <v>8</v>
       </c>
-      <c r="F189">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -3987,12 +3244,8 @@
       <c r="E190" t="s">
         <v>8</v>
       </c>
-      <c r="F190">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -4005,12 +3258,8 @@
       <c r="E191" t="s">
         <v>8</v>
       </c>
-      <c r="F191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -4023,12 +3272,8 @@
       <c r="E192" t="s">
         <v>8</v>
       </c>
-      <c r="F192">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -4041,12 +3286,8 @@
       <c r="E193" t="s">
         <v>8</v>
       </c>
-      <c r="F193">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -4059,12 +3300,8 @@
       <c r="E194" t="s">
         <v>8</v>
       </c>
-      <c r="F194">
-        <f t="shared" ref="F194:F257" si="3">IF(C194&lt;40,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -4077,12 +3314,8 @@
       <c r="E195" t="s">
         <v>8</v>
       </c>
-      <c r="F195">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -4095,12 +3328,8 @@
       <c r="E196" t="s">
         <v>8</v>
       </c>
-      <c r="F196">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -4113,12 +3342,8 @@
       <c r="E197" t="s">
         <v>8</v>
       </c>
-      <c r="F197">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -4131,12 +3356,8 @@
       <c r="E198" t="s">
         <v>8</v>
       </c>
-      <c r="F198">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -4149,12 +3370,8 @@
       <c r="E199" t="s">
         <v>8</v>
       </c>
-      <c r="F199">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -4167,12 +3384,8 @@
       <c r="E200" t="s">
         <v>11</v>
       </c>
-      <c r="F200">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -4185,12 +3398,8 @@
       <c r="E201" t="s">
         <v>11</v>
       </c>
-      <c r="F201">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -4203,12 +3412,8 @@
       <c r="E202" t="s">
         <v>11</v>
       </c>
-      <c r="F202">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -4221,12 +3426,8 @@
       <c r="E203" t="s">
         <v>11</v>
       </c>
-      <c r="F203">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -4239,12 +3440,8 @@
       <c r="E204" t="s">
         <v>11</v>
       </c>
-      <c r="F204">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -4257,12 +3454,8 @@
       <c r="E205" t="s">
         <v>11</v>
       </c>
-      <c r="F205">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -4275,12 +3468,8 @@
       <c r="E206" t="s">
         <v>11</v>
       </c>
-      <c r="F206">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -4293,12 +3482,8 @@
       <c r="E207" t="s">
         <v>11</v>
       </c>
-      <c r="F207">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -4311,12 +3496,8 @@
       <c r="E208" t="s">
         <v>11</v>
       </c>
-      <c r="F208">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -4329,12 +3510,8 @@
       <c r="E209" t="s">
         <v>11</v>
       </c>
-      <c r="F209">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -4347,12 +3524,8 @@
       <c r="E210" t="s">
         <v>11</v>
       </c>
-      <c r="F210">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -4365,12 +3538,8 @@
       <c r="E211" t="s">
         <v>11</v>
       </c>
-      <c r="F211">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -4383,12 +3552,8 @@
       <c r="E212" t="s">
         <v>11</v>
       </c>
-      <c r="F212">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -4401,12 +3566,8 @@
       <c r="E213" t="s">
         <v>11</v>
       </c>
-      <c r="F213">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -4419,12 +3580,8 @@
       <c r="E214" t="s">
         <v>11</v>
       </c>
-      <c r="F214">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -4437,12 +3594,8 @@
       <c r="E215" t="s">
         <v>11</v>
       </c>
-      <c r="F215">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -4455,12 +3608,8 @@
       <c r="E216" t="s">
         <v>11</v>
       </c>
-      <c r="F216">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -4473,12 +3622,8 @@
       <c r="E217" t="s">
         <v>11</v>
       </c>
-      <c r="F217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -4491,12 +3636,8 @@
       <c r="E218" t="s">
         <v>11</v>
       </c>
-      <c r="F218">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -4509,12 +3650,8 @@
       <c r="E219" t="s">
         <v>11</v>
       </c>
-      <c r="F219">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -4527,12 +3664,8 @@
       <c r="E220" t="s">
         <v>11</v>
       </c>
-      <c r="F220">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -4545,12 +3678,8 @@
       <c r="E221" t="s">
         <v>11</v>
       </c>
-      <c r="F221">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -4563,12 +3692,8 @@
       <c r="E222" t="s">
         <v>11</v>
       </c>
-      <c r="F222">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -4581,12 +3706,8 @@
       <c r="E223" t="s">
         <v>11</v>
       </c>
-      <c r="F223">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -4599,12 +3720,8 @@
       <c r="E224" t="s">
         <v>11</v>
       </c>
-      <c r="F224">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -4617,12 +3734,8 @@
       <c r="E225" t="s">
         <v>11</v>
       </c>
-      <c r="F225">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -4635,12 +3748,8 @@
       <c r="E226" t="s">
         <v>11</v>
       </c>
-      <c r="F226">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -4653,12 +3762,8 @@
       <c r="E227" t="s">
         <v>11</v>
       </c>
-      <c r="F227">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -4671,12 +3776,8 @@
       <c r="E228" t="s">
         <v>11</v>
       </c>
-      <c r="F228">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -4689,12 +3790,8 @@
       <c r="E229" t="s">
         <v>11</v>
       </c>
-      <c r="F229">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -4707,12 +3804,8 @@
       <c r="E230" t="s">
         <v>11</v>
       </c>
-      <c r="F230">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -4725,12 +3818,8 @@
       <c r="E231" t="s">
         <v>11</v>
       </c>
-      <c r="F231">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -4743,12 +3832,8 @@
       <c r="E232" t="s">
         <v>11</v>
       </c>
-      <c r="F232">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -4761,12 +3846,8 @@
       <c r="E233" t="s">
         <v>11</v>
       </c>
-      <c r="F233">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -4779,12 +3860,8 @@
       <c r="E234" t="s">
         <v>11</v>
       </c>
-      <c r="F234">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -4797,12 +3874,8 @@
       <c r="E235" t="s">
         <v>11</v>
       </c>
-      <c r="F235">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -4815,12 +3888,8 @@
       <c r="E236" t="s">
         <v>11</v>
       </c>
-      <c r="F236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -4833,12 +3902,8 @@
       <c r="E237" t="s">
         <v>11</v>
       </c>
-      <c r="F237">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -4851,12 +3916,8 @@
       <c r="E238" t="s">
         <v>11</v>
       </c>
-      <c r="F238">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -4869,12 +3930,8 @@
       <c r="E239" t="s">
         <v>0</v>
       </c>
-      <c r="F239">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -4887,12 +3944,8 @@
       <c r="E240" t="s">
         <v>0</v>
       </c>
-      <c r="F240">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -4905,12 +3958,8 @@
       <c r="E241" t="s">
         <v>11</v>
       </c>
-      <c r="F241">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -4923,12 +3972,8 @@
       <c r="E242" t="s">
         <v>0</v>
       </c>
-      <c r="F242">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -4941,12 +3986,8 @@
       <c r="E243" t="s">
         <v>0</v>
       </c>
-      <c r="F243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -4959,12 +4000,8 @@
       <c r="E244" t="s">
         <v>0</v>
       </c>
-      <c r="F244">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -4977,12 +4014,8 @@
       <c r="E245" t="s">
         <v>0</v>
       </c>
-      <c r="F245">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -4995,12 +4028,8 @@
       <c r="E246" t="s">
         <v>0</v>
       </c>
-      <c r="F246">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -5013,12 +4042,8 @@
       <c r="E247" t="s">
         <v>0</v>
       </c>
-      <c r="F247">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -5031,12 +4056,8 @@
       <c r="E248" t="s">
         <v>0</v>
       </c>
-      <c r="F248">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -5049,12 +4070,8 @@
       <c r="E249" t="s">
         <v>0</v>
       </c>
-      <c r="F249">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -5067,12 +4084,8 @@
       <c r="E250" t="s">
         <v>0</v>
       </c>
-      <c r="F250">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -5085,12 +4098,8 @@
       <c r="E251" t="s">
         <v>0</v>
       </c>
-      <c r="F251">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -5103,12 +4112,8 @@
       <c r="E252" t="s">
         <v>0</v>
       </c>
-      <c r="F252">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -5121,12 +4126,8 @@
       <c r="E253" t="s">
         <v>0</v>
       </c>
-      <c r="F253">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -5139,12 +4140,8 @@
       <c r="E254" t="s">
         <v>0</v>
       </c>
-      <c r="F254">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -5157,12 +4154,8 @@
       <c r="E255" t="s">
         <v>0</v>
       </c>
-      <c r="F255">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -5175,12 +4168,8 @@
       <c r="E256" t="s">
         <v>0</v>
       </c>
-      <c r="F256">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -5193,12 +4182,8 @@
       <c r="E257" t="s">
         <v>0</v>
       </c>
-      <c r="F257">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -5211,12 +4196,8 @@
       <c r="E258" t="s">
         <v>0</v>
       </c>
-      <c r="F258">
-        <f t="shared" ref="F258:F321" si="4">IF(C258&lt;40,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -5229,12 +4210,8 @@
       <c r="E259" t="s">
         <v>0</v>
       </c>
-      <c r="F259">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -5247,12 +4224,8 @@
       <c r="E260" t="s">
         <v>0</v>
       </c>
-      <c r="F260">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -5265,12 +4238,8 @@
       <c r="E261" t="s">
         <v>0</v>
       </c>
-      <c r="F261">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -5283,12 +4252,8 @@
       <c r="E262" t="s">
         <v>0</v>
       </c>
-      <c r="F262">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -5301,12 +4266,8 @@
       <c r="E263" t="s">
         <v>0</v>
       </c>
-      <c r="F263">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -5319,12 +4280,8 @@
       <c r="E264" t="s">
         <v>0</v>
       </c>
-      <c r="F264">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -5337,12 +4294,8 @@
       <c r="E265" t="s">
         <v>0</v>
       </c>
-      <c r="F265">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -5355,12 +4308,8 @@
       <c r="E266" t="s">
         <v>0</v>
       </c>
-      <c r="F266">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -5373,12 +4322,8 @@
       <c r="E267" t="s">
         <v>0</v>
       </c>
-      <c r="F267">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>7</v>
       </c>
@@ -5391,12 +4336,8 @@
       <c r="E268" t="s">
         <v>0</v>
       </c>
-      <c r="F268">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -5409,12 +4350,8 @@
       <c r="E269" t="s">
         <v>0</v>
       </c>
-      <c r="F269">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>7</v>
       </c>
@@ -5427,12 +4364,8 @@
       <c r="E270" t="s">
         <v>0</v>
       </c>
-      <c r="F270">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -5445,12 +4378,8 @@
       <c r="E271" t="s">
         <v>0</v>
       </c>
-      <c r="F271">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -5463,12 +4392,8 @@
       <c r="E272" t="s">
         <v>1</v>
       </c>
-      <c r="F272">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -5481,12 +4406,8 @@
       <c r="E273" t="s">
         <v>1</v>
       </c>
-      <c r="F273">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -5499,12 +4420,8 @@
       <c r="E274" t="s">
         <v>1</v>
       </c>
-      <c r="F274">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -5517,12 +4434,8 @@
       <c r="E275" t="s">
         <v>1</v>
       </c>
-      <c r="F275">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -5535,12 +4448,8 @@
       <c r="E276" t="s">
         <v>1</v>
       </c>
-      <c r="F276">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -5553,12 +4462,8 @@
       <c r="E277" t="s">
         <v>1</v>
       </c>
-      <c r="F277">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -5571,12 +4476,8 @@
       <c r="E278" t="s">
         <v>1</v>
       </c>
-      <c r="F278">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -5589,12 +4490,8 @@
       <c r="E279" t="s">
         <v>1</v>
       </c>
-      <c r="F279">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -5607,12 +4504,8 @@
       <c r="E280" t="s">
         <v>1</v>
       </c>
-      <c r="F280">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -5625,12 +4518,8 @@
       <c r="E281" t="s">
         <v>1</v>
       </c>
-      <c r="F281">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -5643,12 +4532,8 @@
       <c r="E282" t="s">
         <v>1</v>
       </c>
-      <c r="F282">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -5661,12 +4546,8 @@
       <c r="E283" t="s">
         <v>1</v>
       </c>
-      <c r="F283">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -5679,12 +4560,8 @@
       <c r="E284" t="s">
         <v>1</v>
       </c>
-      <c r="F284">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -5697,12 +4574,8 @@
       <c r="E285" t="s">
         <v>1</v>
       </c>
-      <c r="F285">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -5715,12 +4588,8 @@
       <c r="E286" t="s">
         <v>1</v>
       </c>
-      <c r="F286">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -5733,12 +4602,8 @@
       <c r="E287" t="s">
         <v>1</v>
       </c>
-      <c r="F287">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -5751,12 +4616,8 @@
       <c r="E288" t="s">
         <v>1</v>
       </c>
-      <c r="F288">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -5769,12 +4630,8 @@
       <c r="E289" t="s">
         <v>1</v>
       </c>
-      <c r="F289">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -5787,12 +4644,8 @@
       <c r="E290" t="s">
         <v>1</v>
       </c>
-      <c r="F290">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -5805,12 +4658,8 @@
       <c r="E291" t="s">
         <v>1</v>
       </c>
-      <c r="F291">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>7</v>
       </c>
@@ -5823,12 +4672,8 @@
       <c r="E292" t="s">
         <v>1</v>
       </c>
-      <c r="F292">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -5841,12 +4686,8 @@
       <c r="E293" t="s">
         <v>1</v>
       </c>
-      <c r="F293">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -5859,12 +4700,8 @@
       <c r="E294" t="s">
         <v>1</v>
       </c>
-      <c r="F294">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -5877,12 +4714,8 @@
       <c r="E295" t="s">
         <v>1</v>
       </c>
-      <c r="F295">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -5895,12 +4728,8 @@
       <c r="E296" t="s">
         <v>1</v>
       </c>
-      <c r="F296">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -5913,12 +4742,8 @@
       <c r="E297" t="s">
         <v>1</v>
       </c>
-      <c r="F297">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -5931,12 +4756,8 @@
       <c r="E298" t="s">
         <v>1</v>
       </c>
-      <c r="F298">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -5949,12 +4770,8 @@
       <c r="E299" t="s">
         <v>1</v>
       </c>
-      <c r="F299">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -5967,12 +4784,8 @@
       <c r="E300" t="s">
         <v>1</v>
       </c>
-      <c r="F300">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -5985,12 +4798,8 @@
       <c r="E301" t="s">
         <v>1</v>
       </c>
-      <c r="F301">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -6003,12 +4812,8 @@
       <c r="E302" t="s">
         <v>1</v>
       </c>
-      <c r="F302">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -6021,12 +4826,8 @@
       <c r="E303" t="s">
         <v>1</v>
       </c>
-      <c r="F303">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -6039,12 +4840,8 @@
       <c r="E304" t="s">
         <v>1</v>
       </c>
-      <c r="F304">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -6057,12 +4854,8 @@
       <c r="E305" t="s">
         <v>1</v>
       </c>
-      <c r="F305">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -6075,12 +4868,8 @@
       <c r="E306" t="s">
         <v>1</v>
       </c>
-      <c r="F306">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -6093,12 +4882,8 @@
       <c r="E307" t="s">
         <v>1</v>
       </c>
-      <c r="F307">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -6111,12 +4896,8 @@
       <c r="E308" t="s">
         <v>1</v>
       </c>
-      <c r="F308">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -6129,12 +4910,8 @@
       <c r="E309" t="s">
         <v>1</v>
       </c>
-      <c r="F309">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -6147,12 +4924,8 @@
       <c r="E310" t="s">
         <v>1</v>
       </c>
-      <c r="F310">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -6165,12 +4938,8 @@
       <c r="E311" t="s">
         <v>1</v>
       </c>
-      <c r="F311">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -6183,12 +4952,8 @@
       <c r="E312" t="s">
         <v>1</v>
       </c>
-      <c r="F312">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -6201,12 +4966,8 @@
       <c r="E313" t="s">
         <v>1</v>
       </c>
-      <c r="F313">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -6219,12 +4980,8 @@
       <c r="E314" t="s">
         <v>1</v>
       </c>
-      <c r="F314">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -6237,12 +4994,8 @@
       <c r="E315" t="s">
         <v>1</v>
       </c>
-      <c r="F315">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -6255,12 +5008,8 @@
       <c r="E316" t="s">
         <v>1</v>
       </c>
-      <c r="F316">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -6273,12 +5022,8 @@
       <c r="E317" t="s">
         <v>1</v>
       </c>
-      <c r="F317">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -6291,12 +5036,8 @@
       <c r="E318" t="s">
         <v>1</v>
       </c>
-      <c r="F318">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -6309,12 +5050,8 @@
       <c r="E319" t="s">
         <v>1</v>
       </c>
-      <c r="F319">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -6327,12 +5064,8 @@
       <c r="E320" t="s">
         <v>1</v>
       </c>
-      <c r="F320">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -6345,12 +5078,8 @@
       <c r="E321" t="s">
         <v>1</v>
       </c>
-      <c r="F321">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -6363,12 +5092,8 @@
       <c r="E322" t="s">
         <v>1</v>
       </c>
-      <c r="F322">
-        <f t="shared" ref="F322:F370" si="5">IF(C322&lt;40,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -6381,12 +5106,8 @@
       <c r="E323" t="s">
         <v>1</v>
       </c>
-      <c r="F323">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -6399,12 +5120,8 @@
       <c r="E324" t="s">
         <v>1</v>
       </c>
-      <c r="F324">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -6417,12 +5134,8 @@
       <c r="E325" t="s">
         <v>1</v>
       </c>
-      <c r="F325">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -6435,12 +5148,8 @@
       <c r="E326" t="s">
         <v>1</v>
       </c>
-      <c r="F326">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -6453,12 +5162,8 @@
       <c r="E327" t="s">
         <v>1</v>
       </c>
-      <c r="F327">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -6471,12 +5176,8 @@
       <c r="E328" t="s">
         <v>1</v>
       </c>
-      <c r="F328">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -6489,12 +5190,8 @@
       <c r="E329" t="s">
         <v>1</v>
       </c>
-      <c r="F329">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -6507,12 +5204,8 @@
       <c r="E330" t="s">
         <v>1</v>
       </c>
-      <c r="F330">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -6525,12 +5218,8 @@
       <c r="E331" t="s">
         <v>1</v>
       </c>
-      <c r="F331">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -6543,12 +5232,8 @@
       <c r="E332" t="s">
         <v>1</v>
       </c>
-      <c r="F332">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -6561,12 +5246,8 @@
       <c r="E333" t="s">
         <v>1</v>
       </c>
-      <c r="F333">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -6579,12 +5260,8 @@
       <c r="E334" t="s">
         <v>1</v>
       </c>
-      <c r="F334">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>7</v>
       </c>
@@ -6597,12 +5274,8 @@
       <c r="E335" t="s">
         <v>1</v>
       </c>
-      <c r="F335">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -6615,12 +5288,8 @@
       <c r="E336" t="s">
         <v>1</v>
       </c>
-      <c r="F336">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -6633,12 +5302,8 @@
       <c r="E337" t="s">
         <v>1</v>
       </c>
-      <c r="F337">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -6651,12 +5316,8 @@
       <c r="E338" t="s">
         <v>1</v>
       </c>
-      <c r="F338">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -6669,12 +5330,8 @@
       <c r="E339" t="s">
         <v>1</v>
       </c>
-      <c r="F339">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -6687,12 +5344,8 @@
       <c r="E340" t="s">
         <v>1</v>
       </c>
-      <c r="F340">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -6705,12 +5358,8 @@
       <c r="E341" t="s">
         <v>1</v>
       </c>
-      <c r="F341">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -6723,12 +5372,8 @@
       <c r="E342" t="s">
         <v>1</v>
       </c>
-      <c r="F342">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -6741,12 +5386,8 @@
       <c r="E343" t="s">
         <v>1</v>
       </c>
-      <c r="F343">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -6759,12 +5400,8 @@
       <c r="E344" t="s">
         <v>1</v>
       </c>
-      <c r="F344">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -6777,12 +5414,8 @@
       <c r="E345" t="s">
         <v>1</v>
       </c>
-      <c r="F345">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>7</v>
       </c>
@@ -6795,12 +5428,8 @@
       <c r="E346" t="s">
         <v>1</v>
       </c>
-      <c r="F346">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>7</v>
       </c>
@@ -6813,12 +5442,8 @@
       <c r="E347" t="s">
         <v>1</v>
       </c>
-      <c r="F347">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -6831,12 +5456,8 @@
       <c r="E348" t="s">
         <v>1</v>
       </c>
-      <c r="F348">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -6849,12 +5470,8 @@
       <c r="E349" t="s">
         <v>1</v>
       </c>
-      <c r="F349">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -6867,12 +5484,8 @@
       <c r="E350" t="s">
         <v>1</v>
       </c>
-      <c r="F350">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>7</v>
       </c>
@@ -6885,12 +5498,8 @@
       <c r="E351" t="s">
         <v>1</v>
       </c>
-      <c r="F351">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -6903,12 +5512,8 @@
       <c r="E352" t="s">
         <v>1</v>
       </c>
-      <c r="F352">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -6921,12 +5526,8 @@
       <c r="E353" t="s">
         <v>1</v>
       </c>
-      <c r="F353">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -6939,12 +5540,8 @@
       <c r="E354" t="s">
         <v>1</v>
       </c>
-      <c r="F354">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -6957,12 +5554,8 @@
       <c r="E355" t="s">
         <v>1</v>
       </c>
-      <c r="F355">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -6975,12 +5568,8 @@
       <c r="E356" t="s">
         <v>1</v>
       </c>
-      <c r="F356">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -6993,12 +5582,8 @@
       <c r="E357" t="s">
         <v>1</v>
       </c>
-      <c r="F357">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -7011,12 +5596,8 @@
       <c r="E358" t="s">
         <v>1</v>
       </c>
-      <c r="F358">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>7</v>
       </c>
@@ -7029,12 +5610,8 @@
       <c r="E359" t="s">
         <v>1</v>
       </c>
-      <c r="F359">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -7047,12 +5624,8 @@
       <c r="E360" t="s">
         <v>1</v>
       </c>
-      <c r="F360">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>7</v>
       </c>
@@ -7065,12 +5638,8 @@
       <c r="E361" t="s">
         <v>1</v>
       </c>
-      <c r="F361">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -7083,12 +5652,8 @@
       <c r="E362" t="s">
         <v>1</v>
       </c>
-      <c r="F362">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -7101,12 +5666,8 @@
       <c r="E363" t="s">
         <v>1</v>
       </c>
-      <c r="F363">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>7</v>
       </c>
@@ -7119,12 +5680,8 @@
       <c r="E364" t="s">
         <v>1</v>
       </c>
-      <c r="F364">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -7137,12 +5694,8 @@
       <c r="E365" t="s">
         <v>1</v>
       </c>
-      <c r="F365">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>7</v>
       </c>
@@ -7155,12 +5708,8 @@
       <c r="E366" t="s">
         <v>1</v>
       </c>
-      <c r="F366">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>7</v>
       </c>
@@ -7173,12 +5722,8 @@
       <c r="E367" t="s">
         <v>1</v>
       </c>
-      <c r="F367">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -7191,12 +5736,8 @@
       <c r="E368" t="s">
         <v>1</v>
       </c>
-      <c r="F368">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -7209,12 +5750,8 @@
       <c r="E369" t="s">
         <v>1</v>
       </c>
-      <c r="F369">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>7</v>
       </c>
@@ -7227,9 +5764,171 @@
       <c r="E370" t="s">
         <v>1</v>
       </c>
-      <c r="F370">
-        <f t="shared" si="5"/>
-        <v>0</v>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371">
+        <v>48.151733999999998</v>
+      </c>
+      <c r="D371">
+        <v>139.08291600000001</v>
+      </c>
+      <c r="E371" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372">
+        <v>44.813710999999998</v>
+      </c>
+      <c r="D372">
+        <v>129.087829</v>
+      </c>
+      <c r="E372" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373">
+        <v>48.950344000000001</v>
+      </c>
+      <c r="D373">
+        <v>132.835058</v>
+      </c>
+      <c r="E373" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374">
+        <v>51.963048999999998</v>
+      </c>
+      <c r="D374">
+        <v>136.500283</v>
+      </c>
+      <c r="E374" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375">
+        <v>48.128543000000001</v>
+      </c>
+      <c r="D375">
+        <v>132.640747</v>
+      </c>
+      <c r="E375" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376">
+        <v>48.215282999999999</v>
+      </c>
+      <c r="D376">
+        <v>134.87385699999999</v>
+      </c>
+      <c r="E376" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377">
+        <v>48.697879</v>
+      </c>
+      <c r="D377">
+        <v>135.664861</v>
+      </c>
+      <c r="E377" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>7</v>
+      </c>
+      <c r="B378" t="s">
+        <v>13</v>
+      </c>
+      <c r="C378">
+        <v>35.498173000000001</v>
+      </c>
+      <c r="D378">
+        <v>137.994876</v>
+      </c>
+      <c r="E378" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>7</v>
+      </c>
+      <c r="B379" t="s">
+        <v>13</v>
+      </c>
+      <c r="C379">
+        <v>35.923028000000002</v>
+      </c>
+      <c r="D379">
+        <v>137.44972200000001</v>
+      </c>
+      <c r="E379" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>7</v>
+      </c>
+      <c r="B380" t="s">
+        <v>13</v>
+      </c>
+      <c r="C380">
+        <v>35.854444000000001</v>
+      </c>
+      <c r="D380">
+        <v>138.196944</v>
+      </c>
+      <c r="E380" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>7</v>
+      </c>
+      <c r="B381" t="s">
+        <v>14</v>
+      </c>
+      <c r="C381">
+        <v>38.183332999999998</v>
+      </c>
+      <c r="D381">
+        <v>127.4</v>
+      </c>
+      <c r="E381" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
